--- a/doc/詳細設計/テーブル定義書_植物観察日記.xlsx
+++ b/doc/詳細設計/テーブル定義書_植物観察日記.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/document-sample/02.詳細設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{C6DBF28F-C222-6F41-B1CC-179B4248AFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1368B9D-7880-4EE6-BA81-B16386C04B12}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{C6DBF28F-C222-6F41-B1CC-179B4248AFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50AB366-E4DB-433C-A662-10FAE3E6B345}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="7" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -3056,7 +3056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="138">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -3287,7 +3287,7 @@
     <t>kansatsu</t>
   </si>
   <si>
-    <t>2024/09/05</t>
+    <t>2024/09/07</t>
   </si>
   <si>
     <t>ユーザー情報</t>
@@ -3310,6 +3310,12 @@
   </si>
   <si>
     <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>IX_users_account</t>
@@ -3344,18 +3350,6 @@
   </si>
   <si>
     <t>varchar(160)</t>
-  </si>
-  <si>
-    <t>植物数</t>
-  </si>
-  <si>
-    <t>plants_count</t>
-  </si>
-  <si>
-    <t>観察日記数</t>
-  </si>
-  <si>
-    <t>diaries_count</t>
   </si>
   <si>
     <t>画像ファイルパス</t>
@@ -3411,6 +3405,9 @@
   </si>
   <si>
     <t>IX_plants_user_id</t>
+  </si>
+  <si>
+    <t>2024/09/05</t>
   </si>
   <si>
     <t>植物画像データ</t>
@@ -4481,6 +4478,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4498,15 +4534,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4532,13 +4559,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4550,44 +4574,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4914,13 +4911,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="4" width="26.5703125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" style="2" customWidth="1"/>
-    <col min="7" max="26" width="7.5703125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="12.5703125" style="2"/>
+    <col min="2" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.875" style="2" customWidth="1"/>
+    <col min="7" max="26" width="7.625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="11.25" customHeight="1">
@@ -32954,17 +32951,17 @@
       <selection activeCell="B8" sqref="B8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
     <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
+    <col min="7" max="7" width="40.125" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
@@ -32983,123 +32980,123 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="36"/>
@@ -33361,10 +33358,10 @@
       <c r="B26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="30" t="s">
         <v>65</v>
       </c>
@@ -33382,10 +33379,10 @@
       <c r="B27" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="33" t="s">
         <v>32</v>
       </c>
@@ -33401,10 +33398,2050 @@
       <c r="B28" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="53"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB2FA61-FCE0-48F8-85A8-A647E2506138}">
+  <dimension ref="A1:IV31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A17" s="21">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="21">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A20" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A22" s="21">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A28" s="35">
+        <v>2</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA5CA1-8D4A-4B25-B992-05B7DDB8EC0F}">
+  <dimension ref="A1:IV31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A17" s="21">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="21">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A20" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A22" s="21">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A28" s="35">
+        <v>2</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F83CD-CB49-41A5-87D3-A732D27F7C15}">
+  <dimension ref="A1:IV32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A17" s="21">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="21">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A20" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A22" s="21">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A28" s="48">
+        <v>2</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="83"/>
+      <c r="E28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A29" s="25">
+        <v>3</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D5DCC8-C1FB-45EB-9FF6-D063D2BC9FCA}">
+  <dimension ref="A1:IV31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A17" s="21">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="21">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A20" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
+      <c r="A22" s="21">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A28" s="35">
+        <v>2</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="66"/>
       <c r="E28" s="39" t="s">
         <v>1</v>
       </c>
@@ -33469,25 +35506,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB2FA61-FCE0-48F8-85A8-A647E2506138}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E8A7C4-9599-43B9-82CC-0474F0528670}">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
     <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
+    <col min="7" max="7" width="42.75" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
@@ -33506,123 +35543,123 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="72"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="69"/>
+      <c r="F3" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="68"/>
+      <c r="C5" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="77"/>
       <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="68"/>
+      <c r="C6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="77"/>
       <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="36"/>
@@ -33685,7 +35722,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
@@ -33693,110 +35730,124 @@
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="21">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="21">
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>57</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="21">
         <v>5</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="21">
         <v>6</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
       <c r="A20" s="21">
         <v>7</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="21">
@@ -33858,10 +35909,10 @@
       <c r="B26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="30" t="s">
         <v>65</v>
       </c>
@@ -33879,10 +35930,10 @@
       <c r="B27" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="33" t="s">
         <v>32</v>
       </c>
@@ -33896,1557 +35947,12 @@
         <v>2</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
-    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA5CA1-8D4A-4B25-B992-05B7DDB8EC0F}">
-  <dimension ref="A1:IV31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="69"/>
-    </row>
-    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A16" s="21">
-        <v>3</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A17" s="21">
-        <v>4</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="21">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A20" s="21">
-        <v>7</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A22" s="21">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A23" s="25">
-        <v>10</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A27" s="32">
-        <v>1</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A28" s="35">
-        <v>2</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
-    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F83CD-CB49-41A5-87D3-A732D27F7C15}">
-  <dimension ref="A1:IV32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="69"/>
-    </row>
-    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A16" s="21">
-        <v>3</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A17" s="21">
-        <v>4</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="21">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A20" s="21">
-        <v>7</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A22" s="21">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A23" s="25">
-        <v>10</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A27" s="32">
-        <v>1</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A28" s="73">
-        <v>2</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A29" s="25">
-        <v>3</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="83"/>
-    </row>
-    <row r="30" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
-    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D5DCC8-C1FB-45EB-9FF6-D063D2BC9FCA}">
-  <dimension ref="A1:IV31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="69"/>
-    </row>
-    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A16" s="21">
-        <v>3</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A17" s="21">
-        <v>4</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="21">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A20" s="21">
-        <v>7</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A22" s="21">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A23" s="25">
-        <v>10</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A27" s="32">
-        <v>1</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A28" s="35">
-        <v>2</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="53"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="39" t="s">
         <v>1</v>
       </c>
@@ -35511,25 +36017,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E8A7C4-9599-43B9-82CC-0474F0528670}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597A02D-FC9D-492B-83B7-73590183C821}">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="41" customWidth="1"/>
     <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
+    <col min="7" max="7" width="42.75" style="41" customWidth="1"/>
+    <col min="8" max="256" width="12.625" style="41" customWidth="1"/>
+    <col min="257" max="16384" width="12.625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
@@ -35548,123 +36054,123 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="72"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="69"/>
+      <c r="F3" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="69"/>
+      <c r="F4" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="68"/>
+      <c r="C5" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="77"/>
       <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="68"/>
+      <c r="C6" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="77"/>
       <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="36"/>
@@ -35727,7 +36233,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
@@ -35735,10 +36241,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>36</v>
@@ -35748,7 +36254,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
@@ -35756,32 +36262,38 @@
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="21">
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="46"/>
+        <v>96</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
     </row>
@@ -35902,10 +36414,10 @@
       <c r="B26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="30" t="s">
         <v>65</v>
       </c>
@@ -35923,10 +36435,10 @@
       <c r="B27" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="33" t="s">
         <v>32</v>
       </c>
@@ -35940,12 +36452,12 @@
         <v>2</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="66"/>
       <c r="E28" s="39" t="s">
         <v>1</v>
       </c>
@@ -36008,509 +36520,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597A02D-FC9D-492B-83B7-73590183C821}">
-  <dimension ref="A1:IV31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="41" customWidth="1"/>
-    <col min="8" max="256" width="12.5703125" style="41" customWidth="1"/>
-    <col min="257" max="16384" width="12.5703125" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="69"/>
-    </row>
-    <row r="6" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A16" s="21">
-        <v>3</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A17" s="21">
-        <v>4</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="21">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A20" s="21">
-        <v>7</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" s="41" customFormat="1" ht="12">
-      <c r="A22" s="21">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A23" s="25">
-        <v>10</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A27" s="32">
-        <v>1</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" s="41" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A28" s="35">
-        <v>2</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" s="41" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
-    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>